--- a/Outputs/4. Prosumer percentage constrained/Output Files/50/Output_2_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/50/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2059301.976522067</v>
+        <v>2058905.38366839</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261098.0247275278</v>
+        <v>261098.0247275249</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736547</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9192115.403248547</v>
+        <v>9192115.403248545</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>220.0583151445705</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>362.7032122692378</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -753,7 +753,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>55.0032172792034</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -789,7 +789,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>55.00321727919999</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -862,7 +862,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>128.5900859387891</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>138.3424411355423</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>36.90306586820526</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.549759922413</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>82.04911229992733</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -1023,7 +1023,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>61.02309861178326</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>20.00936788158973</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>84.31882417064585</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>29.69821475767894</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
         <v>411.9429466803539</v>
@@ -1151,7 +1151,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>129.1540398521388</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>127.9408088804326</v>
+        <v>50.16904611364148</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -1224,7 +1224,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -1260,13 +1260,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.07620011938087</v>
+        <v>58.0633291268696</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -1303,16 +1303,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.507150558500925</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867456</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747227</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721453</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504552</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.6588612950833</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774093</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548094</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
-        <v>264.779673565513</v>
+        <v>71.28012580225965</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>24.02008513148139</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1464,7 +1464,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>87.08585307182788</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1500,7 +1500,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>174.945626988732</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1512,7 +1512,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>82.50765273277462</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932737</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472786</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230625</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808569</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F13" t="n">
-        <v>37.525682916272</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761984</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031026</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513961</v>
+        <v>29.3308484451395</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355692</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214066</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T13" t="n">
-        <v>117.4169981442693</v>
+        <v>117.4169981442692</v>
       </c>
       <c r="U13" t="n">
-        <v>170.8881716075825</v>
+        <v>170.8881716075824</v>
       </c>
       <c r="V13" t="n">
-        <v>144.697785888953</v>
+        <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.3846417114339</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>255.1333308809057</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
         <v>57.65886129508321</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774084</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>40.070447732397</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>276.1762713617116</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>44.39508284523954</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -1692,13 +1692,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>133.7051040367562</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>115.5885891700059</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -1749,7 +1749,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>82.50765273277462</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>216.4199433826097</v>
+        <v>216.4199433826098</v>
       </c>
       <c r="C17" t="n">
-        <v>204.4312603402914</v>
+        <v>204.4312603402915</v>
       </c>
       <c r="D17" t="n">
-        <v>195.4125643848194</v>
+        <v>195.4125643848195</v>
       </c>
       <c r="E17" t="n">
-        <v>217.1547019547226</v>
+        <v>217.154701954725</v>
       </c>
       <c r="F17" t="n">
-        <v>236.3265180427021</v>
+        <v>236.3265180427022</v>
       </c>
       <c r="G17" t="n">
-        <v>238.2597859401246</v>
+        <v>238.2597859401247</v>
       </c>
       <c r="H17" t="n">
         <v>155.8099009184346</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.67352487572032</v>
+        <v>11.67352487572065</v>
       </c>
       <c r="T17" t="n">
-        <v>48.43219606606968</v>
+        <v>48.43219606606976</v>
       </c>
       <c r="U17" t="n">
-        <v>78.65332218291664</v>
+        <v>78.65332218291672</v>
       </c>
       <c r="V17" t="n">
-        <v>159.9263206227888</v>
+        <v>159.9263206227889</v>
       </c>
       <c r="W17" t="n">
-        <v>185.2264201007457</v>
+        <v>185.2264201007458</v>
       </c>
       <c r="X17" t="n">
-        <v>204.5266783334923</v>
+        <v>204.5266783334924</v>
       </c>
       <c r="Y17" t="n">
-        <v>215.9232761296911</v>
+        <v>215.9232761296912</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>12.16745932453866</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>129.213923937364</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.036654257306765</v>
+        <v>8.03665425730685</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>17.568422430992</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>37.88950423012005</v>
+        <v>37.88950423012014</v>
       </c>
       <c r="T19" t="n">
-        <v>57.16400291224869</v>
+        <v>57.16400291224878</v>
       </c>
       <c r="U19" t="n">
         <v>110.6351763755619</v>
       </c>
       <c r="V19" t="n">
-        <v>102.013213087925</v>
+        <v>84.44479065693244</v>
       </c>
       <c r="W19" t="n">
-        <v>109.6116767275456</v>
+        <v>109.6116767275457</v>
       </c>
       <c r="X19" t="n">
-        <v>55.25677872334873</v>
+        <v>55.25677872334882</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.13164647941642</v>
+        <v>46.1316464794165</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>216.4199433826097</v>
+        <v>216.4199433826098</v>
       </c>
       <c r="C20" t="n">
-        <v>204.4312603402914</v>
+        <v>204.4312603402915</v>
       </c>
       <c r="D20" t="n">
-        <v>195.4125643848194</v>
+        <v>195.4125643848195</v>
       </c>
       <c r="E20" t="n">
-        <v>217.1547019547249</v>
+        <v>217.154701954725</v>
       </c>
       <c r="F20" t="n">
-        <v>236.3265180427021</v>
+        <v>236.3265180427022</v>
       </c>
       <c r="G20" t="n">
-        <v>238.2597859401246</v>
+        <v>238.2597859401247</v>
       </c>
       <c r="H20" t="n">
         <v>155.8099009184346</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.67352487572032</v>
+        <v>11.6735248757204</v>
       </c>
       <c r="T20" t="n">
-        <v>48.43219606606968</v>
+        <v>48.43219606606976</v>
       </c>
       <c r="U20" t="n">
-        <v>78.65332218291664</v>
+        <v>78.65332218291672</v>
       </c>
       <c r="V20" t="n">
-        <v>159.9263206227888</v>
+        <v>159.9263206227889</v>
       </c>
       <c r="W20" t="n">
-        <v>185.2264201007457</v>
+        <v>185.2264201007458</v>
       </c>
       <c r="X20" t="n">
-        <v>204.5266783334923</v>
+        <v>204.5266783334924</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.9232761296911</v>
+        <v>215.9232761296912</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>70.655026925832</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>133.0117842286064</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.036654257306765</v>
+        <v>8.03665425730685</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.56842243099261</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.88950423012005</v>
+        <v>37.88950423012014</v>
       </c>
       <c r="T22" t="n">
-        <v>57.16400291224869</v>
+        <v>74.73242534324088</v>
       </c>
       <c r="U22" t="n">
         <v>110.6351763755619</v>
       </c>
       <c r="V22" t="n">
-        <v>84.44479065693235</v>
+        <v>84.44479065693244</v>
       </c>
       <c r="W22" t="n">
-        <v>109.6116767275456</v>
+        <v>109.6116767275457</v>
       </c>
       <c r="X22" t="n">
-        <v>55.25677872334873</v>
+        <v>55.25677872334882</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.13164647941642</v>
+        <v>46.1316464794165</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.4199433826097</v>
+        <v>216.4199433826098</v>
       </c>
       <c r="C23" t="n">
-        <v>204.4312603402914</v>
+        <v>204.4312603402915</v>
       </c>
       <c r="D23" t="n">
-        <v>195.4125643848194</v>
+        <v>195.4125643848195</v>
       </c>
       <c r="E23" t="n">
-        <v>217.1547019547249</v>
+        <v>217.154701954725</v>
       </c>
       <c r="F23" t="n">
-        <v>236.3265180427021</v>
+        <v>236.3265180427022</v>
       </c>
       <c r="G23" t="n">
-        <v>238.2597859401246</v>
+        <v>238.2597859401247</v>
       </c>
       <c r="H23" t="n">
         <v>155.8099009184346</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.67352487572032</v>
+        <v>11.6735248757204</v>
       </c>
       <c r="T23" t="n">
-        <v>48.43219606606968</v>
+        <v>48.43219606606976</v>
       </c>
       <c r="U23" t="n">
-        <v>78.65332218291664</v>
+        <v>78.65332218291672</v>
       </c>
       <c r="V23" t="n">
-        <v>159.9263206227888</v>
+        <v>159.9263206227889</v>
       </c>
       <c r="W23" t="n">
-        <v>185.2264201007457</v>
+        <v>185.2264201007458</v>
       </c>
       <c r="X23" t="n">
-        <v>204.5266783334923</v>
+        <v>204.5266783334924</v>
       </c>
       <c r="Y23" t="n">
-        <v>215.9232761296911</v>
+        <v>215.9232761296912</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>25.98870080223547</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7255156193619</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.036654257306765</v>
+        <v>8.03665425730685</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>17.5684224309934</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.56842243099205</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>37.88950423012005</v>
+        <v>37.88950423012014</v>
       </c>
       <c r="T25" t="n">
-        <v>57.16400291224869</v>
+        <v>57.16400291224878</v>
       </c>
       <c r="U25" t="n">
         <v>110.6351763755619</v>
       </c>
       <c r="V25" t="n">
-        <v>84.44479065693235</v>
+        <v>84.44479065693244</v>
       </c>
       <c r="W25" t="n">
-        <v>109.6116767275456</v>
+        <v>109.6116767275457</v>
       </c>
       <c r="X25" t="n">
-        <v>55.25677872334873</v>
+        <v>55.25677872334882</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.13164647941642</v>
+        <v>46.1316464794165</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>206.1315648406271</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508318</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774081</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
@@ -2621,7 +2621,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>205.6348975877041</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>143.259757067945</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932726</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472774</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230613</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808558</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627189</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761973</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031015</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513949</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.5963980635568</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214055</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2792,7 +2792,7 @@
         <v>276.6729386146302</v>
       </c>
       <c r="C29" t="n">
-        <v>264.6842555723119</v>
+        <v>196.0761496957274</v>
       </c>
       <c r="D29" t="n">
         <v>255.6655596168399</v>
@@ -2801,16 +2801,16 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
@@ -2852,13 +2852,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>125.1182804634398</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2877,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581942</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133627</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.9460223007792</v>
+        <v>245.9460223007793</v>
       </c>
       <c r="C32" t="n">
-        <v>233.957339258461</v>
+        <v>233.9573392584611</v>
       </c>
       <c r="D32" t="n">
-        <v>224.9386433029889</v>
+        <v>224.938643302989</v>
       </c>
       <c r="E32" t="n">
-        <v>246.6807808728945</v>
+        <v>246.6807808728946</v>
       </c>
       <c r="F32" t="n">
-        <v>265.8525969608717</v>
+        <v>265.8525969608718</v>
       </c>
       <c r="G32" t="n">
-        <v>267.7858648582942</v>
+        <v>267.7858648582943</v>
       </c>
       <c r="H32" t="n">
-        <v>185.3359798366041</v>
+        <v>185.3359798366042</v>
       </c>
       <c r="I32" t="n">
-        <v>26.93194498123222</v>
+        <v>26.93194498123233</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.19960379388985</v>
+        <v>41.19960379388996</v>
       </c>
       <c r="T32" t="n">
-        <v>77.95827498423921</v>
+        <v>77.95827498423932</v>
       </c>
       <c r="U32" t="n">
-        <v>108.1794011010862</v>
+        <v>108.1794011010863</v>
       </c>
       <c r="V32" t="n">
-        <v>189.4523995409583</v>
+        <v>189.4523995409585</v>
       </c>
       <c r="W32" t="n">
-        <v>214.7524990189152</v>
+        <v>214.7524990189154</v>
       </c>
       <c r="X32" t="n">
-        <v>234.0527572516619</v>
+        <v>234.052757251662</v>
       </c>
       <c r="Y32" t="n">
-        <v>245.4493550478606</v>
+        <v>245.4493550478607</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
-        <v>160.0866360314548</v>
+        <v>145.5211447459515</v>
       </c>
       <c r="D33" t="n">
         <v>137.45025063969</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.5627331754763</v>
+        <v>37.56273317547641</v>
       </c>
       <c r="C34" t="n">
-        <v>23.76272802087678</v>
+        <v>23.76272802087689</v>
       </c>
       <c r="D34" t="n">
-        <v>7.384092418455168</v>
+        <v>7.384092418455282</v>
       </c>
       <c r="E34" t="n">
-        <v>6.331842274234617</v>
+        <v>6.331842274234731</v>
       </c>
       <c r="F34" t="n">
-        <v>6.798766602420926</v>
+        <v>6.79876660242104</v>
       </c>
       <c r="G34" t="n">
-        <v>23.07346932376876</v>
+        <v>23.07346932376888</v>
       </c>
       <c r="H34" t="n">
-        <v>13.62183694645918</v>
+        <v>13.6218369464593</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.869481749705841</v>
+        <v>3.869481749705955</v>
       </c>
       <c r="S34" t="n">
-        <v>67.41558314828958</v>
+        <v>67.4155831482897</v>
       </c>
       <c r="T34" t="n">
-        <v>86.69008183041822</v>
+        <v>86.69008183041834</v>
       </c>
       <c r="U34" t="n">
-        <v>140.1612552937314</v>
+        <v>140.1612552937315</v>
       </c>
       <c r="V34" t="n">
-        <v>113.9708695751019</v>
+        <v>113.970869575102</v>
       </c>
       <c r="W34" t="n">
-        <v>139.1377556457151</v>
+        <v>139.1377556457153</v>
       </c>
       <c r="X34" t="n">
-        <v>84.78285764151826</v>
+        <v>84.78285764151838</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.65772539758595</v>
+        <v>75.65772539758606</v>
       </c>
     </row>
     <row r="35">
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>136.7060008318836</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>84.37298759326521</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3639,7 +3639,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>226.1116663261494</v>
+        <v>211.5461750406456</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E44" t="n">
-        <v>224.7087975524973</v>
+        <v>224.7087975524972</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G44" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H44" t="n">
-        <v>163.3639965162069</v>
+        <v>163.3639965162068</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660834978</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349261</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.98629166384197</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068893</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205619</v>
       </c>
       <c r="W44" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4122,7 +4122,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>176.0306218014135</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507905</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479536</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371519</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.44359982789234</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002098</v>
       </c>
       <c r="U46" t="n">
-        <v>118.1892719733342</v>
+        <v>118.1892719733341</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.99888625470464</v>
       </c>
       <c r="W46" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112102</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718871</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>817.0230801398477</v>
+        <v>284.5464831085358</v>
       </c>
       <c r="C2" t="n">
-        <v>435.0893214726551</v>
+        <v>62.26535669987872</v>
       </c>
       <c r="D2" t="n">
-        <v>62.26535669987865</v>
+        <v>62.26535669987872</v>
       </c>
       <c r="E2" t="n">
-        <v>62.26535669987865</v>
+        <v>62.26535669987872</v>
       </c>
       <c r="F2" t="n">
-        <v>52.15457005045303</v>
+        <v>52.15457005045311</v>
       </c>
       <c r="G2" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="H2" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="I2" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="J2" t="n">
-        <v>112.0895318178507</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K2" t="n">
-        <v>352.2299038626335</v>
+        <v>352.2299038626336</v>
       </c>
       <c r="L2" t="n">
         <v>700.1152769475798</v>
@@ -4340,40 +4340,40 @@
         <v>1093.354443200668</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.685801888383</v>
+        <v>1471.38789632337</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.690386361217</v>
+        <v>1776.392480796204</v>
       </c>
       <c r="P2" t="n">
-        <v>2004.549377252253</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="Q2" t="n">
-        <v>2004.549377252253</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="R2" t="n">
-        <v>1913.911090748107</v>
+        <v>1913.911090748111</v>
       </c>
       <c r="S2" t="n">
-        <v>1913.911090748107</v>
+        <v>1913.911090748111</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.911090748107</v>
+        <v>1689.552144479122</v>
       </c>
       <c r="U2" t="n">
-        <v>1913.911090748107</v>
+        <v>1434.666808193116</v>
       </c>
       <c r="V2" t="n">
-        <v>1576.931816644048</v>
+        <v>1434.666808193116</v>
       </c>
       <c r="W2" t="n">
-        <v>1576.931816644048</v>
+        <v>1072.131878050717</v>
       </c>
       <c r="X2" t="n">
-        <v>1210.56493556401</v>
+        <v>1072.131878050717</v>
       </c>
       <c r="Y2" t="n">
-        <v>817.0230801398477</v>
+        <v>678.590022626555</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.7622178347418</v>
+        <v>713.3210231672706</v>
       </c>
       <c r="C3" t="n">
-        <v>657.7622178347418</v>
+        <v>713.3210231672706</v>
       </c>
       <c r="D3" t="n">
-        <v>518.9235808249539</v>
+        <v>574.4823861574827</v>
       </c>
       <c r="E3" t="n">
-        <v>371.8955708818252</v>
+        <v>427.4543762143539</v>
       </c>
       <c r="F3" t="n">
-        <v>237.2017728316995</v>
+        <v>292.7605781642283</v>
       </c>
       <c r="G3" t="n">
-        <v>108.4732728549841</v>
+        <v>164.0320781875128</v>
       </c>
       <c r="H3" t="n">
         <v>108.4732728549841</v>
       </c>
       <c r="I3" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="J3" t="n">
-        <v>100.3451340781512</v>
+        <v>100.3451340781513</v>
       </c>
       <c r="K3" t="n">
-        <v>329.8356866383399</v>
+        <v>329.83568663834</v>
       </c>
       <c r="L3" t="n">
         <v>695.6575318084556</v>
       </c>
       <c r="M3" t="n">
-        <v>958.4518258125756</v>
+        <v>1152.481877406815</v>
       </c>
       <c r="N3" t="n">
-        <v>1454.577796682508</v>
+        <v>1152.481877406815</v>
       </c>
       <c r="O3" t="n">
-        <v>1846.777747466659</v>
+        <v>1544.681828190966</v>
       </c>
       <c r="P3" t="n">
-        <v>1846.777747466659</v>
+        <v>1846.777747466663</v>
       </c>
       <c r="Q3" t="n">
-        <v>2004.549377252253</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="R3" t="n">
-        <v>1944.765108347199</v>
+        <v>1944.765108347203</v>
       </c>
       <c r="S3" t="n">
-        <v>1791.965621359939</v>
+        <v>1791.965621359943</v>
       </c>
       <c r="T3" t="n">
-        <v>1736.406816027414</v>
+        <v>1791.965621359943</v>
       </c>
       <c r="U3" t="n">
-        <v>1517.912023625724</v>
+        <v>1573.470828958253</v>
       </c>
       <c r="V3" t="n">
-        <v>1289.516401074058</v>
+        <v>1345.075206406587</v>
       </c>
       <c r="W3" t="n">
-        <v>1048.200532307368</v>
+        <v>1103.759337639897</v>
       </c>
       <c r="X3" t="n">
-        <v>850.283544185163</v>
+        <v>905.8423495176918</v>
       </c>
       <c r="Y3" t="n">
-        <v>657.7622178347418</v>
+        <v>713.3210231672706</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="D4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="E4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="F4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="G4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="H4" t="n">
-        <v>244.3512705281938</v>
+        <v>244.3512705281939</v>
       </c>
       <c r="I4" t="n">
-        <v>100.1482261308723</v>
+        <v>100.1482261308724</v>
       </c>
       <c r="J4" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="K4" t="n">
-        <v>73.69517528968848</v>
+        <v>73.69517528968856</v>
       </c>
       <c r="L4" t="n">
-        <v>174.302254689948</v>
+        <v>174.3022546899481</v>
       </c>
       <c r="M4" t="n">
-        <v>292.2957608175497</v>
+        <v>292.2957608175498</v>
       </c>
       <c r="N4" t="n">
-        <v>410.7181025671501</v>
+        <v>410.7181025671502</v>
       </c>
       <c r="O4" t="n">
-        <v>509.1817490628397</v>
+        <v>509.1817490628399</v>
       </c>
       <c r="P4" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.6128914446665</v>
+        <v>533.6128914446666</v>
       </c>
       <c r="R4" t="n">
-        <v>384.0911100590447</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="S4" t="n">
-        <v>384.0911100590447</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="T4" t="n">
-        <v>384.0911100590447</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="U4" t="n">
-        <v>384.0911100590447</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="V4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="W4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="X4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
       <c r="Y4" t="n">
-        <v>244.3512705281938</v>
+        <v>403.7239157489201</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>970.1036457180428</v>
+        <v>471.364152826944</v>
       </c>
       <c r="C5" t="n">
-        <v>588.1698870508501</v>
+        <v>89.43039415975136</v>
       </c>
       <c r="D5" t="n">
-        <v>215.3459222780737</v>
+        <v>89.43039415975136</v>
       </c>
       <c r="E5" t="n">
-        <v>215.3459222780737</v>
+        <v>89.43039415975136</v>
       </c>
       <c r="F5" t="n">
-        <v>205.235135628648</v>
+        <v>52.15457005045311</v>
       </c>
       <c r="G5" t="n">
-        <v>193.1715531232401</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="H5" t="n">
-        <v>193.1715531232401</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="I5" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="J5" t="n">
-        <v>112.0895318178507</v>
+        <v>112.0895318178508</v>
       </c>
       <c r="K5" t="n">
-        <v>352.2299038626335</v>
+        <v>352.2299038626336</v>
       </c>
       <c r="L5" t="n">
         <v>700.1152769475798</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.354443200668</v>
+        <v>998.6242839491174</v>
       </c>
       <c r="N5" t="n">
-        <v>1376.955642636829</v>
+        <v>1376.955642636833</v>
       </c>
       <c r="O5" t="n">
-        <v>1681.960227109663</v>
+        <v>1681.960227109667</v>
       </c>
       <c r="P5" t="n">
-        <v>1910.117123565716</v>
+        <v>1910.11712356572</v>
       </c>
       <c r="Q5" t="n">
-        <v>2004.549377252253</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="R5" t="n">
-        <v>1913.911090748107</v>
+        <v>1913.911090748111</v>
       </c>
       <c r="S5" t="n">
-        <v>1726.682115378461</v>
+        <v>1726.682115378464</v>
       </c>
       <c r="T5" t="n">
-        <v>1726.682115378461</v>
+        <v>1502.323169109476</v>
       </c>
       <c r="U5" t="n">
-        <v>1726.682115378461</v>
+        <v>1247.43783282347</v>
       </c>
       <c r="V5" t="n">
-        <v>1726.682115378461</v>
+        <v>1247.43783282347</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.147185236062</v>
+        <v>1247.43783282347</v>
       </c>
       <c r="X5" t="n">
-        <v>1364.147185236062</v>
+        <v>865.4076923449632</v>
       </c>
       <c r="Y5" t="n">
-        <v>1364.147185236062</v>
+        <v>865.4076923449632</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684.7720925436615</v>
+        <v>593.612099103661</v>
       </c>
       <c r="C6" t="n">
-        <v>523.0684197846163</v>
+        <v>510.7342078916132</v>
       </c>
       <c r="D6" t="n">
-        <v>384.2297827748283</v>
+        <v>371.8955708818252</v>
       </c>
       <c r="E6" t="n">
-        <v>237.2017728316995</v>
+        <v>371.8955708818252</v>
       </c>
       <c r="F6" t="n">
-        <v>237.2017728316995</v>
+        <v>237.2017728316996</v>
       </c>
       <c r="G6" t="n">
         <v>108.4732728549841</v>
@@ -4641,55 +4641,55 @@
         <v>108.4732728549841</v>
       </c>
       <c r="I6" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="J6" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="K6" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="L6" t="n">
-        <v>405.9128327151607</v>
+        <v>405.9128327151608</v>
       </c>
       <c r="M6" t="n">
-        <v>890.9461862253871</v>
+        <v>814.1275363224755</v>
       </c>
       <c r="N6" t="n">
-        <v>1310.253507192405</v>
+        <v>1310.253507192409</v>
       </c>
       <c r="O6" t="n">
-        <v>1702.453457976556</v>
+        <v>1702.45345797656</v>
       </c>
       <c r="P6" t="n">
-        <v>2004.549377252253</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="Q6" t="n">
-        <v>2004.549377252253</v>
+        <v>2004.549377252257</v>
       </c>
       <c r="R6" t="n">
-        <v>1944.765108347199</v>
+        <v>1944.765108347203</v>
       </c>
       <c r="S6" t="n">
-        <v>1883.125614799943</v>
+        <v>1791.965621359943</v>
       </c>
       <c r="T6" t="n">
-        <v>1694.440510965929</v>
+        <v>1603.280517525928</v>
       </c>
       <c r="U6" t="n">
-        <v>1475.945718564239</v>
+        <v>1384.785725124239</v>
       </c>
       <c r="V6" t="n">
-        <v>1475.945718564239</v>
+        <v>1384.785725124239</v>
       </c>
       <c r="W6" t="n">
-        <v>1234.629849797549</v>
+        <v>1143.469856357548</v>
       </c>
       <c r="X6" t="n">
-        <v>1036.712861675343</v>
+        <v>945.552868235343</v>
       </c>
       <c r="Y6" t="n">
-        <v>844.1915353249224</v>
+        <v>753.0315418849218</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.2615170103439</v>
+        <v>388.5948641065978</v>
       </c>
       <c r="C7" t="n">
-        <v>125.2615170103439</v>
+        <v>388.5948641065978</v>
       </c>
       <c r="D7" t="n">
-        <v>125.2615170103439</v>
+        <v>388.5948641065978</v>
       </c>
       <c r="E7" t="n">
-        <v>125.2615170103439</v>
+        <v>368.3833813979213</v>
       </c>
       <c r="F7" t="n">
-        <v>125.2615170103439</v>
+        <v>368.3833813979213</v>
       </c>
       <c r="G7" t="n">
-        <v>40.09098754504507</v>
+        <v>199.4636327657713</v>
       </c>
       <c r="H7" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="I7" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="J7" t="n">
-        <v>40.09098754504507</v>
+        <v>40.09098754504515</v>
       </c>
       <c r="K7" t="n">
-        <v>73.69517528968848</v>
+        <v>73.69517528968856</v>
       </c>
       <c r="L7" t="n">
-        <v>174.302254689948</v>
+        <v>174.3022546899481</v>
       </c>
       <c r="M7" t="n">
-        <v>292.2957608175497</v>
+        <v>292.2957608175498</v>
       </c>
       <c r="N7" t="n">
-        <v>410.7181025671501</v>
+        <v>410.7181025671502</v>
       </c>
       <c r="O7" t="n">
-        <v>509.1817490628397</v>
+        <v>509.1817490628399</v>
       </c>
       <c r="P7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="Q7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="R7" t="n">
-        <v>572.1502327909775</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="S7" t="n">
-        <v>358.4404701946651</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="T7" t="n">
-        <v>125.2615170103439</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="U7" t="n">
-        <v>125.2615170103439</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="V7" t="n">
-        <v>125.2615170103439</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="W7" t="n">
-        <v>125.2615170103439</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="X7" t="n">
-        <v>125.2615170103439</v>
+        <v>572.1502327909776</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.2615170103439</v>
+        <v>572.1502327909776</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>973.8775024903316</v>
+        <v>1617.032663131652</v>
       </c>
       <c r="C8" t="n">
-        <v>973.8775024903316</v>
+        <v>1235.09890446446</v>
       </c>
       <c r="D8" t="n">
-        <v>973.8775024903316</v>
+        <v>1235.09890446446</v>
       </c>
       <c r="E8" t="n">
-        <v>973.8775024903316</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V8" t="n">
-        <v>1486.36626908211</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W8" t="n">
-        <v>1355.907642968838</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X8" t="n">
-        <v>973.8775024903316</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y8" t="n">
-        <v>973.8775024903316</v>
+        <v>1617.032663131652</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.2993471409599</v>
+        <v>833.1741837486488</v>
       </c>
       <c r="C9" t="n">
-        <v>621.2993471409599</v>
+        <v>671.4705109896036</v>
       </c>
       <c r="D9" t="n">
-        <v>492.0662068576946</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>345.0381969145658</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>210.3443988644402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
         <v>210.3443988644402</v>
@@ -4890,16 +4890,16 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>1039.975578367094</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.241224490216</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1943.441175274367</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1624.347809769226</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1383.031941002536</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1185.114952880331</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>992.5936265299098</v>
       </c>
     </row>
     <row r="10">
@@ -4942,22 +4942,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="D10" t="n">
-        <v>550.774208297252</v>
+        <v>515.4336739462533</v>
       </c>
       <c r="E10" t="n">
-        <v>398.7651940585709</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="F10" t="n">
-        <v>246.284539084348</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1211.170737899817</v>
+        <v>1406.62482654957</v>
       </c>
       <c r="C11" t="n">
-        <v>1206.618060567998</v>
+        <v>1406.62482654957</v>
       </c>
       <c r="D11" t="n">
-        <v>1206.618060567998</v>
+        <v>1148.37678653256</v>
       </c>
       <c r="E11" t="n">
-        <v>926.4082654298711</v>
+        <v>868.1669913944331</v>
       </c>
       <c r="F11" t="n">
-        <v>626.8329994958078</v>
+        <v>568.5917254603698</v>
       </c>
       <c r="G11" t="n">
-        <v>325.3049377057621</v>
+        <v>267.0636636703243</v>
       </c>
       <c r="H11" t="n">
-        <v>107.0595880588376</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J11" t="n">
-        <v>233.1127221493321</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K11" t="n">
-        <v>581.5702046756971</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L11" t="n">
-        <v>929.4555777606433</v>
+        <v>821.1384672790613</v>
       </c>
       <c r="M11" t="n">
-        <v>1322.694744013731</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N11" t="n">
-        <v>1813.321966554573</v>
+        <v>1592.708992219865</v>
       </c>
       <c r="O11" t="n">
-        <v>2118.326551027407</v>
+        <v>2010.009440545826</v>
       </c>
       <c r="P11" t="n">
-        <v>2346.483447483461</v>
+        <v>2346.483447483462</v>
       </c>
       <c r="Q11" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S11" t="n">
-        <v>2368.262650556118</v>
+        <v>2368.26265055612</v>
       </c>
       <c r="T11" t="n">
-        <v>2368.262650556118</v>
+        <v>2368.26265055612</v>
       </c>
       <c r="U11" t="n">
-        <v>2227.953239025878</v>
+        <v>2227.95323902588</v>
       </c>
       <c r="V11" t="n">
-        <v>2005.549889677586</v>
+        <v>2005.549889677588</v>
       </c>
       <c r="W11" t="n">
-        <v>1757.590884290953</v>
+        <v>1757.590884290955</v>
       </c>
       <c r="X11" t="n">
-        <v>1490.136668568213</v>
+        <v>1685.590757217966</v>
       </c>
       <c r="Y11" t="n">
-        <v>1211.170737899817</v>
+        <v>1406.62482654957</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>813.5551497696777</v>
+        <v>916.1587252255035</v>
       </c>
       <c r="C12" t="n">
-        <v>651.8514770106324</v>
+        <v>754.4550524664583</v>
       </c>
       <c r="D12" t="n">
-        <v>627.5887647566108</v>
+        <v>615.6164154566703</v>
       </c>
       <c r="E12" t="n">
-        <v>480.560754813482</v>
+        <v>468.5884055135415</v>
       </c>
       <c r="F12" t="n">
-        <v>345.8669567633564</v>
+        <v>333.8946074634159</v>
       </c>
       <c r="G12" t="n">
-        <v>217.1384567866409</v>
+        <v>205.1661074867005</v>
       </c>
       <c r="H12" t="n">
         <v>117.200599333339</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J12" t="n">
         <v>109.0724605565061</v>
@@ -5130,40 +5130,40 @@
         <v>1189.418211797037</v>
       </c>
       <c r="N12" t="n">
-        <v>1588.848201324555</v>
+        <v>1588.848201324557</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.048152108706</v>
+        <v>1981.048152108708</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.144071384404</v>
+        <v>2283.144071384405</v>
       </c>
       <c r="Q12" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R12" t="n">
-        <v>2381.131432264943</v>
+        <v>2381.131432264945</v>
       </c>
       <c r="S12" t="n">
-        <v>2228.331945277684</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T12" t="n">
-        <v>2051.619190743611</v>
+        <v>2039.64684144367</v>
       </c>
       <c r="U12" t="n">
-        <v>1833.124398341921</v>
+        <v>1821.15204904198</v>
       </c>
       <c r="V12" t="n">
-        <v>1604.728775790255</v>
+        <v>1592.756426490314</v>
       </c>
       <c r="W12" t="n">
-        <v>1363.412907023565</v>
+        <v>1351.440557723624</v>
       </c>
       <c r="X12" t="n">
-        <v>1165.49591890136</v>
+        <v>1268.099494357185</v>
       </c>
       <c r="Y12" t="n">
-        <v>972.9745925509385</v>
+        <v>1075.578168006764</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.4598109066945</v>
+        <v>346.459810906694</v>
       </c>
       <c r="C13" t="n">
-        <v>291.4197661241411</v>
+        <v>291.4197661241407</v>
       </c>
       <c r="D13" t="n">
-        <v>252.9237977076702</v>
+        <v>252.9237977076698</v>
       </c>
       <c r="E13" t="n">
-        <v>215.4907082247553</v>
+        <v>215.4907082247551</v>
       </c>
       <c r="F13" t="n">
-        <v>177.5859780062988</v>
+        <v>177.5859780062985</v>
       </c>
       <c r="G13" t="n">
         <v>123.242154129915</v>
       </c>
       <c r="H13" t="n">
-        <v>78.44543366495515</v>
+        <v>78.44543366495503</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J13" t="n">
-        <v>102.2520783385572</v>
+        <v>102.2520783385573</v>
       </c>
       <c r="K13" t="n">
-        <v>248.1521299363272</v>
+        <v>248.1521299363274</v>
       </c>
       <c r="L13" t="n">
-        <v>461.0550731897133</v>
+        <v>461.0550731897135</v>
       </c>
       <c r="M13" t="n">
-        <v>691.3444431704415</v>
+        <v>691.344443170442</v>
       </c>
       <c r="N13" t="n">
-        <v>922.0626487731685</v>
+        <v>922.062648773169</v>
       </c>
       <c r="O13" t="n">
         <v>1132.822159121985</v>
       </c>
       <c r="P13" t="n">
-        <v>1308.086506703249</v>
+        <v>1308.08650670325</v>
       </c>
       <c r="Q13" t="n">
-        <v>1382.611922302856</v>
+        <v>1382.611922302857</v>
       </c>
       <c r="R13" t="n">
-        <v>1347.666065673001</v>
+        <v>1347.666065673002</v>
       </c>
       <c r="S13" t="n">
-        <v>1248.532227832455</v>
+        <v>1248.532227832456</v>
       </c>
       <c r="T13" t="n">
-        <v>1129.9291994039</v>
+        <v>1129.929199403901</v>
       </c>
       <c r="U13" t="n">
-        <v>957.314884648765</v>
+        <v>957.3148846487671</v>
       </c>
       <c r="V13" t="n">
-        <v>811.1555049629538</v>
+        <v>811.1555049629561</v>
       </c>
       <c r="W13" t="n">
-        <v>639.5750282361192</v>
+        <v>639.5750282361216</v>
       </c>
       <c r="X13" t="n">
-        <v>522.8984888872614</v>
+        <v>522.8984888872637</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.439254835308</v>
+        <v>415.4392548353075</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>931.7031231375649</v>
+        <v>1732.223934496434</v>
       </c>
       <c r="C14" t="n">
-        <v>664.3452892261384</v>
+        <v>1464.866100585008</v>
       </c>
       <c r="D14" t="n">
-        <v>406.6348539929008</v>
+        <v>1206.618060567997</v>
       </c>
       <c r="E14" t="n">
-        <v>406.6348539929008</v>
+        <v>926.4082654298708</v>
       </c>
       <c r="F14" t="n">
-        <v>107.0595880588375</v>
+        <v>626.8329994958075</v>
       </c>
       <c r="G14" t="n">
-        <v>107.0595880588375</v>
+        <v>325.3049377057619</v>
       </c>
       <c r="H14" t="n">
-        <v>107.0595880588375</v>
+        <v>107.0595880588376</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J14" t="n">
-        <v>233.1127221493323</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K14" t="n">
-        <v>585.5489580472416</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L14" t="n">
-        <v>933.4343311321879</v>
+        <v>708.8426034259346</v>
       </c>
       <c r="M14" t="n">
-        <v>1326.673497385276</v>
+        <v>1214.377633532149</v>
       </c>
       <c r="N14" t="n">
-        <v>1813.321966554573</v>
+        <v>1705.004856072992</v>
       </c>
       <c r="O14" t="n">
-        <v>2118.326551027407</v>
+        <v>2118.326551027409</v>
       </c>
       <c r="P14" t="n">
-        <v>2346.483447483461</v>
+        <v>2346.483447483462</v>
       </c>
       <c r="Q14" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S14" t="n">
-        <v>2368.262650556118</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="T14" t="n">
-        <v>2368.262650556118</v>
+        <v>2331.132679656776</v>
       </c>
       <c r="U14" t="n">
-        <v>2227.953239025878</v>
+        <v>2331.132679656776</v>
       </c>
       <c r="V14" t="n">
-        <v>2005.549889677586</v>
+        <v>2331.132679656776</v>
       </c>
       <c r="W14" t="n">
-        <v>1757.590884290953</v>
+        <v>2290.657479927082</v>
       </c>
       <c r="X14" t="n">
-        <v>1490.136668568213</v>
+        <v>2290.657479927082</v>
       </c>
       <c r="Y14" t="n">
-        <v>1211.170737899818</v>
+        <v>2011.691549258687</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.1587252255022</v>
+        <v>916.1587252255033</v>
       </c>
       <c r="C15" t="n">
-        <v>754.4550524664569</v>
+        <v>754.455052466458</v>
       </c>
       <c r="D15" t="n">
-        <v>615.616415456669</v>
+        <v>615.6164154566701</v>
       </c>
       <c r="E15" t="n">
-        <v>468.5884055135402</v>
+        <v>480.560754813482</v>
       </c>
       <c r="F15" t="n">
-        <v>333.8946074634146</v>
+        <v>345.8669567633564</v>
       </c>
       <c r="G15" t="n">
         <v>217.1384567866409</v>
@@ -5352,55 +5352,55 @@
         <v>117.200599333339</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81831402339996</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K15" t="n">
-        <v>278.3088665835886</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L15" t="n">
-        <v>644.1307117537042</v>
+        <v>704.3848582868104</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.164065263931</v>
+        <v>1189.418211797037</v>
       </c>
       <c r="N15" t="n">
-        <v>1588.848201324555</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.048152108706</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.144071384404</v>
+        <v>2283.144071384405</v>
       </c>
       <c r="Q15" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R15" t="n">
-        <v>2381.131432264943</v>
+        <v>2381.131432264945</v>
       </c>
       <c r="S15" t="n">
-        <v>2228.331945277684</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T15" t="n">
-        <v>2039.646841443669</v>
+        <v>2039.64684144367</v>
       </c>
       <c r="U15" t="n">
-        <v>1821.152049041979</v>
+        <v>1821.15204904198</v>
       </c>
       <c r="V15" t="n">
-        <v>1592.756426490313</v>
+        <v>1592.756426490314</v>
       </c>
       <c r="W15" t="n">
-        <v>1351.440557723623</v>
+        <v>1351.440557723624</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.099494357184</v>
+        <v>1153.523569601419</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.578168006763</v>
+        <v>961.0022432509978</v>
       </c>
     </row>
     <row r="16">
@@ -5413,7 +5413,7 @@
         <v>346.4598109066939</v>
       </c>
       <c r="C16" t="n">
-        <v>291.4197661241406</v>
+        <v>291.4197661241407</v>
       </c>
       <c r="D16" t="n">
         <v>252.9237977076698</v>
@@ -5428,22 +5428,22 @@
         <v>123.2421541299149</v>
       </c>
       <c r="H16" t="n">
-        <v>78.44543366495503</v>
+        <v>78.44543366495506</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J16" t="n">
-        <v>102.2520783385572</v>
+        <v>102.2520783385573</v>
       </c>
       <c r="K16" t="n">
-        <v>248.1521299363273</v>
+        <v>248.1521299363274</v>
       </c>
       <c r="L16" t="n">
-        <v>461.0550731897134</v>
+        <v>461.0550731897135</v>
       </c>
       <c r="M16" t="n">
-        <v>691.3444431704419</v>
+        <v>691.344443170442</v>
       </c>
       <c r="N16" t="n">
         <v>922.062648773169</v>
@@ -5467,16 +5467,16 @@
         <v>1129.929199403901</v>
       </c>
       <c r="U16" t="n">
-        <v>957.3148846487672</v>
+        <v>957.314884648767</v>
       </c>
       <c r="V16" t="n">
-        <v>811.1555049629562</v>
+        <v>811.155504962956</v>
       </c>
       <c r="W16" t="n">
-        <v>639.5750282361217</v>
+        <v>639.5750282361216</v>
       </c>
       <c r="X16" t="n">
-        <v>522.8984888872639</v>
+        <v>522.8984888872637</v>
       </c>
       <c r="Y16" t="n">
         <v>415.4392548353073</v>
@@ -5492,61 +5492,61 @@
         <v>1308.812992388145</v>
       </c>
       <c r="C17" t="n">
-        <v>1102.316769822191</v>
+        <v>1102.316769822194</v>
       </c>
       <c r="D17" t="n">
-        <v>904.9303411506564</v>
+        <v>904.9303411506589</v>
       </c>
       <c r="E17" t="n">
-        <v>685.5821573580073</v>
+        <v>685.5821573580074</v>
       </c>
       <c r="F17" t="n">
-        <v>446.8685027694193</v>
+        <v>446.8685027694194</v>
       </c>
       <c r="G17" t="n">
-        <v>206.202052324849</v>
+        <v>206.2020523248491</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I17" t="n">
-        <v>51.38650662096789</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J17" t="n">
-        <v>123.3850508937736</v>
+        <v>281.7793673512153</v>
       </c>
       <c r="K17" t="n">
-        <v>363.5254229385563</v>
+        <v>521.9197393959981</v>
       </c>
       <c r="L17" t="n">
-        <v>711.4107960235026</v>
+        <v>1041.751441613771</v>
       </c>
       <c r="M17" t="n">
-        <v>1104.64996227659</v>
+        <v>1434.990607866859</v>
       </c>
       <c r="N17" t="n">
-        <v>1482.981320964306</v>
+        <v>1813.321966554575</v>
       </c>
       <c r="O17" t="n">
-        <v>1959.932234569967</v>
+        <v>2118.326551027409</v>
       </c>
       <c r="P17" t="n">
-        <v>2188.08913102602</v>
+        <v>2346.483447483462</v>
       </c>
       <c r="Q17" t="n">
-        <v>2357.803956639885</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S17" t="n">
-        <v>2429.124261901593</v>
+        <v>2429.124261901594</v>
       </c>
       <c r="T17" t="n">
-        <v>2380.202851733846</v>
+        <v>2380.202851733847</v>
       </c>
       <c r="U17" t="n">
-        <v>2300.755051549082</v>
+        <v>2300.755051549083</v>
       </c>
       <c r="V17" t="n">
         <v>2139.213313546265</v>
@@ -5558,7 +5558,7 @@
         <v>1745.523315127843</v>
       </c>
       <c r="Y17" t="n">
-        <v>1527.418995804922</v>
+        <v>1527.418995804923</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>801.5828004697355</v>
+        <v>859.7487892155051</v>
       </c>
       <c r="C18" t="n">
-        <v>639.8791277106902</v>
+        <v>698.0451164564598</v>
       </c>
       <c r="D18" t="n">
-        <v>627.5887647566108</v>
+        <v>559.2064794466719</v>
       </c>
       <c r="E18" t="n">
-        <v>480.560754813482</v>
+        <v>412.1784695035431</v>
       </c>
       <c r="F18" t="n">
-        <v>345.8669567633564</v>
+        <v>277.4846714534174</v>
       </c>
       <c r="G18" t="n">
-        <v>217.1384567866409</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H18" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I18" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81831402339996</v>
+        <v>109.0724605565061</v>
       </c>
       <c r="K18" t="n">
-        <v>278.3088665835886</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L18" t="n">
-        <v>644.1307117537042</v>
+        <v>592.5492016912084</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.164065263931</v>
+        <v>1077.582555201435</v>
       </c>
       <c r="N18" t="n">
-        <v>1588.848201324555</v>
+        <v>1588.848201324557</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.048152108706</v>
+        <v>1981.048152108708</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.144071384404</v>
+        <v>2283.144071384405</v>
       </c>
       <c r="Q18" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R18" t="n">
-        <v>2381.131432264943</v>
+        <v>2381.131432264945</v>
       </c>
       <c r="S18" t="n">
-        <v>2228.331945277684</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T18" t="n">
-        <v>2039.646841443669</v>
+        <v>2097.812830189439</v>
       </c>
       <c r="U18" t="n">
-        <v>1821.152049041979</v>
+        <v>1879.318037787749</v>
       </c>
       <c r="V18" t="n">
-        <v>1592.756426490313</v>
+        <v>1650.922415236083</v>
       </c>
       <c r="W18" t="n">
-        <v>1351.440557723623</v>
+        <v>1409.606546469392</v>
       </c>
       <c r="X18" t="n">
-        <v>1153.523569601418</v>
+        <v>1211.689558347187</v>
       </c>
       <c r="Y18" t="n">
-        <v>961.0022432509965</v>
+        <v>1019.168231996766</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.56419526682625</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.56419526682625</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.56419526682625</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.56419526682625</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81831402339996</v>
+        <v>66.56419526682625</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I19" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J19" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="K19" t="n">
-        <v>82.42250176804336</v>
+        <v>82.42250176804339</v>
       </c>
       <c r="L19" t="n">
         <v>183.0295811683029</v>
@@ -5686,37 +5686,37 @@
         <v>419.445429045505</v>
       </c>
       <c r="O19" t="n">
-        <v>517.9090755411946</v>
+        <v>517.9090755411947</v>
       </c>
       <c r="P19" t="n">
-        <v>580.8775592693324</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="Q19" t="n">
-        <v>580.8775592693324</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="R19" t="n">
-        <v>580.8775592693324</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="S19" t="n">
         <v>542.6053327742617</v>
       </c>
       <c r="T19" t="n">
-        <v>484.8639156911822</v>
+        <v>484.8639156911821</v>
       </c>
       <c r="U19" t="n">
-        <v>373.1112122815237</v>
+        <v>373.1112122815236</v>
       </c>
       <c r="V19" t="n">
-        <v>270.0675626977611</v>
+        <v>287.8134439411878</v>
       </c>
       <c r="W19" t="n">
-        <v>159.3486973164019</v>
+        <v>177.0945785598284</v>
       </c>
       <c r="X19" t="n">
-        <v>103.5337693130193</v>
+        <v>121.2796505564458</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.9361466065381</v>
+        <v>74.68202784996448</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>1308.812992388145</v>
       </c>
       <c r="C20" t="n">
-        <v>1102.316769822193</v>
+        <v>1102.316769822194</v>
       </c>
       <c r="D20" t="n">
-        <v>904.9303411506587</v>
+        <v>904.9303411506592</v>
       </c>
       <c r="E20" t="n">
-        <v>685.5821573580072</v>
+        <v>685.5821573580076</v>
       </c>
       <c r="F20" t="n">
-        <v>446.8685027694193</v>
+        <v>446.8685027694195</v>
       </c>
       <c r="G20" t="n">
-        <v>206.202052324849</v>
+        <v>206.2020523248491</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J20" t="n">
         <v>120.8168582962056</v>
@@ -5756,10 +5756,10 @@
         <v>360.9572303409884</v>
       </c>
       <c r="L20" t="n">
-        <v>880.7889325587615</v>
+        <v>708.8426034259346</v>
       </c>
       <c r="M20" t="n">
-        <v>1274.02809881185</v>
+        <v>1274.028098811849</v>
       </c>
       <c r="N20" t="n">
         <v>1652.359457499565</v>
@@ -5768,34 +5768,34 @@
         <v>1957.364041972399</v>
       </c>
       <c r="P20" t="n">
-        <v>2185.520938428453</v>
+        <v>2346.483447483462</v>
       </c>
       <c r="Q20" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S20" t="n">
-        <v>2429.124261901593</v>
+        <v>2429.124261901595</v>
       </c>
       <c r="T20" t="n">
-        <v>2380.202851733846</v>
+        <v>2380.202851733848</v>
       </c>
       <c r="U20" t="n">
-        <v>2300.755051549082</v>
+        <v>2300.755051549083</v>
       </c>
       <c r="V20" t="n">
-        <v>2139.213313546265</v>
+        <v>2139.213313546266</v>
       </c>
       <c r="W20" t="n">
-        <v>1952.115919505107</v>
+        <v>1952.115919505109</v>
       </c>
       <c r="X20" t="n">
-        <v>1745.523315127842</v>
+        <v>1745.523315127844</v>
       </c>
       <c r="Y20" t="n">
-        <v>1527.418995804922</v>
+        <v>1527.418995804923</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.131074525444</v>
+        <v>859.7487892155051</v>
       </c>
       <c r="C21" t="n">
-        <v>766.4274017663987</v>
+        <v>698.0451164564598</v>
       </c>
       <c r="D21" t="n">
-        <v>627.5887647566108</v>
+        <v>559.2064794466719</v>
       </c>
       <c r="E21" t="n">
-        <v>480.560754813482</v>
+        <v>412.1784695035431</v>
       </c>
       <c r="F21" t="n">
-        <v>345.8669567633564</v>
+        <v>277.4846714534174</v>
       </c>
       <c r="G21" t="n">
-        <v>217.1384567866409</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H21" t="n">
-        <v>117.200599333339</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J21" t="n">
         <v>109.0724605565061</v>
       </c>
       <c r="K21" t="n">
-        <v>338.5630131166948</v>
+        <v>226.7273565210928</v>
       </c>
       <c r="L21" t="n">
-        <v>704.3848582868104</v>
+        <v>592.5492016912084</v>
       </c>
       <c r="M21" t="n">
-        <v>1189.418211797037</v>
+        <v>1077.582555201435</v>
       </c>
       <c r="N21" t="n">
-        <v>1588.848201324555</v>
+        <v>1588.848201324557</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.048152108706</v>
+        <v>1981.048152108708</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.144071384404</v>
+        <v>2283.144071384405</v>
       </c>
       <c r="Q21" t="n">
-        <v>2440.915701169998</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R21" t="n">
-        <v>2381.131432264943</v>
+        <v>2381.131432264945</v>
       </c>
       <c r="S21" t="n">
-        <v>2228.331945277684</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T21" t="n">
-        <v>2039.646841443669</v>
+        <v>2039.64684144367</v>
       </c>
       <c r="U21" t="n">
-        <v>1821.152049041979</v>
+        <v>1821.15204904198</v>
       </c>
       <c r="V21" t="n">
-        <v>1592.756426490313</v>
+        <v>1592.756426490314</v>
       </c>
       <c r="W21" t="n">
-        <v>1351.440557723623</v>
+        <v>1351.440557723624</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.071843657126</v>
+        <v>1153.523569601419</v>
       </c>
       <c r="Y21" t="n">
-        <v>1087.550517306705</v>
+        <v>1019.168231996766</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="F22" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="H22" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81831402339996</v>
+        <v>48.81831402339998</v>
       </c>
       <c r="K22" t="n">
-        <v>82.42250176804336</v>
+        <v>82.42250176804339</v>
       </c>
       <c r="L22" t="n">
         <v>183.0295811683029</v>
@@ -5923,37 +5923,37 @@
         <v>419.445429045505</v>
       </c>
       <c r="O22" t="n">
-        <v>517.9090755411946</v>
+        <v>517.9090755411947</v>
       </c>
       <c r="P22" t="n">
-        <v>580.8775592693324</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="Q22" t="n">
-        <v>563.1316780259056</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="R22" t="n">
-        <v>563.1316780259056</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="S22" t="n">
-        <v>524.8594515308348</v>
+        <v>542.6053327742617</v>
       </c>
       <c r="T22" t="n">
-        <v>467.1180344477553</v>
+        <v>467.1180344477557</v>
       </c>
       <c r="U22" t="n">
-        <v>355.3653310380968</v>
+        <v>355.3653310380972</v>
       </c>
       <c r="V22" t="n">
-        <v>270.0675626977611</v>
+        <v>270.0675626977614</v>
       </c>
       <c r="W22" t="n">
-        <v>159.3486973164019</v>
+        <v>159.3486973164022</v>
       </c>
       <c r="X22" t="n">
-        <v>103.5337693130193</v>
+        <v>103.5337693130195</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.9361466065381</v>
+        <v>56.93614660653821</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1308.812992388145</v>
+        <v>1308.812992388146</v>
       </c>
       <c r="C23" t="n">
         <v>1102.316769822194</v>
       </c>
       <c r="D23" t="n">
-        <v>904.9303411506589</v>
+        <v>904.9303411506592</v>
       </c>
       <c r="E23" t="n">
-        <v>685.5821573580074</v>
+        <v>685.5821573580076</v>
       </c>
       <c r="F23" t="n">
-        <v>446.8685027694194</v>
+        <v>446.8685027694198</v>
       </c>
       <c r="G23" t="n">
-        <v>206.202052324849</v>
+        <v>206.2020523248491</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I23" t="n">
-        <v>51.38650662096788</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J23" t="n">
-        <v>123.3850508937735</v>
+        <v>120.8168582962056</v>
       </c>
       <c r="K23" t="n">
-        <v>363.5254229385563</v>
+        <v>360.9572303409884</v>
       </c>
       <c r="L23" t="n">
-        <v>869.8051124809424</v>
+        <v>708.8426034259346</v>
       </c>
       <c r="M23" t="n">
-        <v>1263.04427873403</v>
+        <v>1102.081769679022</v>
       </c>
       <c r="N23" t="n">
-        <v>1813.321966554573</v>
+        <v>1641.375637421747</v>
       </c>
       <c r="O23" t="n">
-        <v>2118.326551027407</v>
+        <v>1946.380221894581</v>
       </c>
       <c r="P23" t="n">
-        <v>2346.48344748346</v>
+        <v>2346.483447483462</v>
       </c>
       <c r="Q23" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="S23" t="n">
-        <v>2429.124261901593</v>
+        <v>2429.124261901594</v>
       </c>
       <c r="T23" t="n">
-        <v>2380.202851733846</v>
+        <v>2380.202851733847</v>
       </c>
       <c r="U23" t="n">
-        <v>2300.755051549082</v>
+        <v>2300.755051549083</v>
       </c>
       <c r="V23" t="n">
-        <v>2139.213313546265</v>
+        <v>2139.213313546266</v>
       </c>
       <c r="W23" t="n">
-        <v>1952.115919505108</v>
+        <v>1952.115919505109</v>
       </c>
       <c r="X23" t="n">
         <v>1745.523315127843</v>
       </c>
       <c r="Y23" t="n">
-        <v>1527.418995804922</v>
+        <v>1527.418995804923</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>928.131074525444</v>
+        <v>859.7487892155051</v>
       </c>
       <c r="C24" t="n">
-        <v>766.4274017663987</v>
+        <v>698.0451164564598</v>
       </c>
       <c r="D24" t="n">
-        <v>627.5887647566108</v>
+        <v>559.2064794466719</v>
       </c>
       <c r="E24" t="n">
-        <v>480.560754813482</v>
+        <v>412.1784695035431</v>
       </c>
       <c r="F24" t="n">
-        <v>345.8669567633564</v>
+        <v>277.4846714534174</v>
       </c>
       <c r="G24" t="n">
-        <v>217.1384567866409</v>
+        <v>148.7561714767019</v>
       </c>
       <c r="H24" t="n">
-        <v>117.2005993333389</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81831402339994</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J24" t="n">
         <v>109.0724605565061</v>
       </c>
       <c r="K24" t="n">
-        <v>338.5630131166947</v>
+        <v>338.5630131166948</v>
       </c>
       <c r="L24" t="n">
         <v>704.3848582868104</v>
@@ -6078,40 +6078,40 @@
         <v>1189.418211797037</v>
       </c>
       <c r="N24" t="n">
-        <v>1588.848201324555</v>
+        <v>1700.683857920159</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.048152108706</v>
+        <v>2092.88380870431</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.144071384403</v>
+        <v>2394.979727980007</v>
       </c>
       <c r="Q24" t="n">
-        <v>2440.915701169997</v>
+        <v>2440.915701169999</v>
       </c>
       <c r="R24" t="n">
-        <v>2381.131432264943</v>
+        <v>2381.131432264944</v>
       </c>
       <c r="S24" t="n">
-        <v>2354.880219333392</v>
+        <v>2228.331945277685</v>
       </c>
       <c r="T24" t="n">
-        <v>2166.195115499377</v>
+        <v>2039.64684144367</v>
       </c>
       <c r="U24" t="n">
-        <v>1947.700323097687</v>
+        <v>1879.318037787749</v>
       </c>
       <c r="V24" t="n">
-        <v>1719.304700546021</v>
+        <v>1650.922415236083</v>
       </c>
       <c r="W24" t="n">
-        <v>1477.988831779331</v>
+        <v>1409.606546469392</v>
       </c>
       <c r="X24" t="n">
-        <v>1280.071843657126</v>
+        <v>1211.689558347187</v>
       </c>
       <c r="Y24" t="n">
-        <v>1087.550517306705</v>
+        <v>1019.168231996766</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1926.602337167492</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="C25" t="n">
-        <v>1926.602337167492</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="D25" t="n">
-        <v>1926.602337167492</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="E25" t="n">
-        <v>1908.856455924064</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="F25" t="n">
-        <v>1908.856455924064</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="G25" t="n">
-        <v>1908.856455924064</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="H25" t="n">
-        <v>1908.856455924064</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="I25" t="n">
-        <v>1908.856455924064</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="J25" t="n">
-        <v>1908.856455924064</v>
+        <v>48.81831402339997</v>
       </c>
       <c r="K25" t="n">
-        <v>1942.460643668708</v>
+        <v>82.42250176804339</v>
       </c>
       <c r="L25" t="n">
-        <v>2043.067723068967</v>
+        <v>183.0295811683029</v>
       </c>
       <c r="M25" t="n">
-        <v>2161.061229196569</v>
+        <v>301.0230872959046</v>
       </c>
       <c r="N25" t="n">
-        <v>2279.483570946169</v>
+        <v>419.445429045505</v>
       </c>
       <c r="O25" t="n">
-        <v>2377.947217441859</v>
+        <v>517.9090755411947</v>
       </c>
       <c r="P25" t="n">
-        <v>2440.915701169997</v>
+        <v>580.8775592693326</v>
       </c>
       <c r="Q25" t="n">
-        <v>2440.915701169997</v>
+        <v>563.1316780259062</v>
       </c>
       <c r="R25" t="n">
-        <v>2440.915701169997</v>
+        <v>563.1316780259062</v>
       </c>
       <c r="S25" t="n">
-        <v>2402.643474674926</v>
+        <v>524.8594515308354</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.902057591847</v>
+        <v>467.1180344477557</v>
       </c>
       <c r="U25" t="n">
-        <v>2233.149354182189</v>
+        <v>355.3653310380972</v>
       </c>
       <c r="V25" t="n">
-        <v>2147.851585841853</v>
+        <v>270.0675626977614</v>
       </c>
       <c r="W25" t="n">
-        <v>2037.132720460494</v>
+        <v>159.3486973164022</v>
       </c>
       <c r="X25" t="n">
-        <v>1981.317792457111</v>
+        <v>103.5337693130195</v>
       </c>
       <c r="Y25" t="n">
-        <v>1934.72016975063</v>
+        <v>56.9361466065382</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1176.300521467985</v>
       </c>
       <c r="D26" t="n">
-        <v>918.0524814509747</v>
+        <v>918.0524814509748</v>
       </c>
       <c r="E26" t="n">
         <v>637.8426863128482</v>
@@ -6221,13 +6221,13 @@
         <v>118.0692748758782</v>
       </c>
       <c r="I26" t="n">
-        <v>59.82800084044064</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J26" t="n">
         <v>244.1224089663729</v>
       </c>
       <c r="K26" t="n">
-        <v>596.5586448642824</v>
+        <v>596.5586448642823</v>
       </c>
       <c r="L26" t="n">
         <v>1056.739881802355</v>
@@ -6236,40 +6236,40 @@
         <v>1562.27491190857</v>
       </c>
       <c r="N26" t="n">
-        <v>2052.902134449412</v>
+        <v>2003.457436596812</v>
       </c>
       <c r="O26" t="n">
-        <v>2470.202582775373</v>
+        <v>2420.757884922773</v>
       </c>
       <c r="P26" t="n">
-        <v>2761.210645231956</v>
+        <v>2761.210645231953</v>
       </c>
       <c r="Q26" t="n">
-        <v>2967.93876277162</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R26" t="n">
-        <v>2991.400042022032</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S26" t="n">
-        <v>2918.746991408153</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T26" t="n">
-        <v>2808.96396989493</v>
+        <v>2808.963969894927</v>
       </c>
       <c r="U26" t="n">
-        <v>2668.654558364691</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V26" t="n">
-        <v>2446.251209016398</v>
+        <v>2446.251209016395</v>
       </c>
       <c r="W26" t="n">
-        <v>2198.292203629765</v>
+        <v>2198.292203629763</v>
       </c>
       <c r="X26" t="n">
-        <v>1930.837987907025</v>
+        <v>1930.837987907023</v>
       </c>
       <c r="Y26" t="n">
-        <v>1651.87205723863</v>
+        <v>1723.125970141664</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.1407613424848</v>
+        <v>939.1407613424846</v>
       </c>
       <c r="C27" t="n">
-        <v>777.4370885834395</v>
+        <v>777.4370885834393</v>
       </c>
       <c r="D27" t="n">
-        <v>638.5984515736516</v>
+        <v>638.5984515736513</v>
       </c>
       <c r="E27" t="n">
-        <v>491.5704416305227</v>
+        <v>491.5704416305226</v>
       </c>
       <c r="F27" t="n">
-        <v>356.8766435803971</v>
+        <v>356.8766435803969</v>
       </c>
       <c r="G27" t="n">
-        <v>228.1481436036816</v>
+        <v>228.1481436036815</v>
       </c>
       <c r="H27" t="n">
-        <v>128.2102861503797</v>
+        <v>128.2102861503796</v>
       </c>
       <c r="I27" t="n">
-        <v>59.82800084044064</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J27" t="n">
-        <v>120.0821473735468</v>
+        <v>120.0821473735467</v>
       </c>
       <c r="K27" t="n">
-        <v>349.5726999337355</v>
+        <v>349.5726999337354</v>
       </c>
       <c r="L27" t="n">
-        <v>715.3945451038511</v>
+        <v>715.394545103851</v>
       </c>
       <c r="M27" t="n">
         <v>1200.427898614078</v>
@@ -6327,28 +6327,28 @@
         <v>2563.761044582642</v>
       </c>
       <c r="R27" t="n">
-        <v>2518.689393137692</v>
+        <v>2503.976775677588</v>
       </c>
       <c r="S27" t="n">
-        <v>2365.889906150433</v>
+        <v>2351.177288690328</v>
       </c>
       <c r="T27" t="n">
-        <v>2177.204802316418</v>
+        <v>2162.492184856314</v>
       </c>
       <c r="U27" t="n">
-        <v>1958.710009914728</v>
+        <v>1943.997392454624</v>
       </c>
       <c r="V27" t="n">
-        <v>1730.314387363062</v>
+        <v>1715.601769902958</v>
       </c>
       <c r="W27" t="n">
-        <v>1488.998518596372</v>
+        <v>1474.285901136268</v>
       </c>
       <c r="X27" t="n">
-        <v>1291.081530474167</v>
+        <v>1276.368913014062</v>
       </c>
       <c r="Y27" t="n">
-        <v>1098.560204123746</v>
+        <v>1083.847586663641</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>357.4694977237348</v>
+        <v>357.4694977237339</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4294529411815</v>
+        <v>302.4294529411806</v>
       </c>
       <c r="D28" t="n">
-        <v>263.9334845247107</v>
+        <v>263.9334845247097</v>
       </c>
       <c r="E28" t="n">
-        <v>226.5003950417959</v>
+        <v>226.5003950417949</v>
       </c>
       <c r="F28" t="n">
-        <v>188.5956648233393</v>
+        <v>188.5956648233385</v>
       </c>
       <c r="G28" t="n">
-        <v>134.2518409469558</v>
+        <v>134.2518409469549</v>
       </c>
       <c r="H28" t="n">
-        <v>89.45512048199612</v>
+        <v>89.45512048199521</v>
       </c>
       <c r="I28" t="n">
-        <v>59.82800084044064</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J28" t="n">
-        <v>113.261765155598</v>
+        <v>113.2617651555979</v>
       </c>
       <c r="K28" t="n">
-        <v>259.1618167533681</v>
+        <v>259.1618167533679</v>
       </c>
       <c r="L28" t="n">
-        <v>472.0647600067539</v>
+        <v>472.0647600067541</v>
       </c>
       <c r="M28" t="n">
         <v>702.3541299874826</v>
@@ -6397,13 +6397,13 @@
         <v>933.0723355902094</v>
       </c>
       <c r="O28" t="n">
-        <v>1143.831845939026</v>
+        <v>1143.831845939025</v>
       </c>
       <c r="P28" t="n">
         <v>1319.09619352029</v>
       </c>
       <c r="Q28" t="n">
-        <v>1393.621609119898</v>
+        <v>1393.621609119897</v>
       </c>
       <c r="R28" t="n">
         <v>1358.675752490042</v>
@@ -6412,22 +6412,22 @@
         <v>1259.541914649496</v>
       </c>
       <c r="T28" t="n">
-        <v>1140.938886220942</v>
+        <v>1140.938886220941</v>
       </c>
       <c r="U28" t="n">
-        <v>968.3245714658078</v>
+        <v>968.3245714658073</v>
       </c>
       <c r="V28" t="n">
-        <v>822.1651917799968</v>
+        <v>822.1651917799963</v>
       </c>
       <c r="W28" t="n">
-        <v>650.5847150531623</v>
+        <v>650.5847150531617</v>
       </c>
       <c r="X28" t="n">
-        <v>533.9081757043045</v>
+        <v>533.9081757043039</v>
       </c>
       <c r="Y28" t="n">
-        <v>426.4489416523481</v>
+        <v>426.4489416523473</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1524.98827166655</v>
+        <v>1372.404442476374</v>
       </c>
       <c r="C29" t="n">
-        <v>1257.630437755124</v>
+        <v>1174.347725612003</v>
       </c>
       <c r="D29" t="n">
-        <v>999.3823977381139</v>
+        <v>916.0996855949927</v>
       </c>
       <c r="E29" t="n">
-        <v>719.1726025999872</v>
+        <v>635.8898904568659</v>
       </c>
       <c r="F29" t="n">
-        <v>419.5973366659238</v>
+        <v>336.3146245228025</v>
       </c>
       <c r="G29" t="n">
-        <v>118.0692748758782</v>
+        <v>336.3146245228025</v>
       </c>
       <c r="H29" t="n">
         <v>118.0692748758782</v>
       </c>
       <c r="I29" t="n">
-        <v>59.82800084044064</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J29" t="n">
         <v>244.1224089663729</v>
       </c>
       <c r="K29" t="n">
-        <v>596.5586448642823</v>
+        <v>547.1139470116825</v>
       </c>
       <c r="L29" t="n">
-        <v>1056.739881802355</v>
+        <v>1007.295183949755</v>
       </c>
       <c r="M29" t="n">
-        <v>1562.27491190857</v>
+        <v>1512.83021405597</v>
       </c>
       <c r="N29" t="n">
-        <v>2052.902134449412</v>
+        <v>2003.457436596812</v>
       </c>
       <c r="O29" t="n">
-        <v>2444.219164173189</v>
+        <v>2420.757884922773</v>
       </c>
       <c r="P29" t="n">
-        <v>2784.671924482368</v>
+        <v>2761.210645231953</v>
       </c>
       <c r="Q29" t="n">
-        <v>2991.400042022032</v>
+        <v>2967.938762771617</v>
       </c>
       <c r="R29" t="n">
-        <v>2991.400042022032</v>
+        <v>2991.40004202203</v>
       </c>
       <c r="S29" t="n">
-        <v>2918.746991408153</v>
+        <v>2918.74699140815</v>
       </c>
       <c r="T29" t="n">
-        <v>2808.96396989493</v>
+        <v>2808.963969894928</v>
       </c>
       <c r="U29" t="n">
-        <v>2668.654558364691</v>
+        <v>2668.654558364688</v>
       </c>
       <c r="V29" t="n">
-        <v>2446.251209016399</v>
+        <v>2446.251209016396</v>
       </c>
       <c r="W29" t="n">
-        <v>2198.292203629766</v>
+        <v>2198.292203629763</v>
       </c>
       <c r="X29" t="n">
-        <v>1930.837987907026</v>
+        <v>1930.837987907023</v>
       </c>
       <c r="Y29" t="n">
-        <v>1804.455886428803</v>
+        <v>1651.872057238627</v>
       </c>
     </row>
     <row r="30">
@@ -6525,28 +6525,28 @@
         <v>623.885834113547</v>
       </c>
       <c r="E30" t="n">
-        <v>476.8578241704183</v>
+        <v>491.5704416305226</v>
       </c>
       <c r="F30" t="n">
-        <v>342.1640261202926</v>
+        <v>356.8766435803969</v>
       </c>
       <c r="G30" t="n">
-        <v>213.4355261435772</v>
+        <v>228.1481436036815</v>
       </c>
       <c r="H30" t="n">
-        <v>113.4976686902753</v>
+        <v>128.2102861503796</v>
       </c>
       <c r="I30" t="n">
-        <v>59.82800084044064</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J30" t="n">
-        <v>120.0821473735468</v>
+        <v>120.0821473735467</v>
       </c>
       <c r="K30" t="n">
-        <v>349.5726999337355</v>
+        <v>349.5726999337354</v>
       </c>
       <c r="L30" t="n">
-        <v>715.3945451038511</v>
+        <v>715.394545103851</v>
       </c>
       <c r="M30" t="n">
         <v>1200.427898614078</v>
@@ -6601,37 +6601,37 @@
         <v>302.4294529411809</v>
       </c>
       <c r="D31" t="n">
-        <v>263.9334845247102</v>
+        <v>263.9334845247101</v>
       </c>
       <c r="E31" t="n">
-        <v>226.5003950417954</v>
+        <v>226.5003950417956</v>
       </c>
       <c r="F31" t="n">
-        <v>188.5956648233389</v>
+        <v>188.5956648233391</v>
       </c>
       <c r="G31" t="n">
         <v>134.2518409469555</v>
       </c>
       <c r="H31" t="n">
-        <v>89.45512048199572</v>
+        <v>89.45512048199569</v>
       </c>
       <c r="I31" t="n">
-        <v>59.82800084044064</v>
+        <v>59.82800084044059</v>
       </c>
       <c r="J31" t="n">
-        <v>113.2617651555979</v>
+        <v>113.261765155598</v>
       </c>
       <c r="K31" t="n">
-        <v>259.1618167533679</v>
+        <v>259.1618167533681</v>
       </c>
       <c r="L31" t="n">
-        <v>472.0647600067541</v>
+        <v>472.0647600067542</v>
       </c>
       <c r="M31" t="n">
         <v>702.3541299874826</v>
       </c>
       <c r="N31" t="n">
-        <v>933.0723355902094</v>
+        <v>933.0723355902096</v>
       </c>
       <c r="O31" t="n">
         <v>1143.831845939026</v>
@@ -6640,7 +6640,7 @@
         <v>1319.09619352029</v>
       </c>
       <c r="Q31" t="n">
-        <v>1393.621609119897</v>
+        <v>1393.621609119898</v>
       </c>
       <c r="R31" t="n">
         <v>1358.675752490042</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1524.039328315949</v>
+        <v>1524.03932831595</v>
       </c>
       <c r="C32" t="n">
-        <v>1287.718783610433</v>
+        <v>1287.718783610434</v>
       </c>
       <c r="D32" t="n">
-        <v>1060.508032799333</v>
+        <v>1060.508032799334</v>
       </c>
       <c r="E32" t="n">
-        <v>811.3355268671169</v>
+        <v>811.3355268671173</v>
       </c>
       <c r="F32" t="n">
-        <v>542.7975501389636</v>
+        <v>542.797550138964</v>
       </c>
       <c r="G32" t="n">
-        <v>272.306777554828</v>
+        <v>272.3067775548283</v>
       </c>
       <c r="H32" t="n">
-        <v>85.09871711381398</v>
+        <v>85.09871711381412</v>
       </c>
       <c r="I32" t="n">
-        <v>57.89473228428648</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="J32" t="n">
-        <v>129.8932765570921</v>
+        <v>272.6087875609312</v>
       </c>
       <c r="K32" t="n">
-        <v>380.2285001528285</v>
+        <v>655.464670609553</v>
       </c>
       <c r="L32" t="n">
-        <v>728.1138732377748</v>
+        <v>1146.065554698338</v>
       </c>
       <c r="M32" t="n">
-        <v>1264.068550494702</v>
+        <v>1539.304720951426</v>
       </c>
       <c r="N32" t="n">
-        <v>1785.115420186257</v>
+        <v>1927.830931190098</v>
       </c>
       <c r="O32" t="n">
-        <v>2232.83551566293</v>
+        <v>2375.551026666771</v>
       </c>
       <c r="P32" t="n">
-        <v>2603.707923122822</v>
+        <v>2603.707923122824</v>
       </c>
       <c r="Q32" t="n">
-        <v>2840.855687813199</v>
+        <v>2840.8556878132</v>
       </c>
       <c r="R32" t="n">
-        <v>2894.736614214324</v>
+        <v>2894.736614214325</v>
       </c>
       <c r="S32" t="n">
-        <v>2853.120852806354</v>
+        <v>2853.120852806356</v>
       </c>
       <c r="T32" t="n">
-        <v>2774.375120499042</v>
+        <v>2774.375120499044</v>
       </c>
       <c r="U32" t="n">
-        <v>2665.102998174712</v>
+        <v>2665.102998174714</v>
       </c>
       <c r="V32" t="n">
-        <v>2473.73693803233</v>
+        <v>2473.736938032332</v>
       </c>
       <c r="W32" t="n">
-        <v>2256.815221851608</v>
+        <v>2256.815221851609</v>
       </c>
       <c r="X32" t="n">
-        <v>2020.398295334778</v>
+        <v>2020.398295334779</v>
       </c>
       <c r="Y32" t="n">
-        <v>1772.469653872292</v>
+        <v>1772.469653872293</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.2074927863306</v>
+        <v>922.4948753262263</v>
       </c>
       <c r="C33" t="n">
         <v>775.5038200272853</v>
@@ -6768,13 +6768,13 @@
         <v>354.9433750242429</v>
       </c>
       <c r="G33" t="n">
-        <v>226.2148750475274</v>
+        <v>226.2148750475275</v>
       </c>
       <c r="H33" t="n">
         <v>126.2770175942255</v>
       </c>
       <c r="I33" t="n">
-        <v>57.89473228428648</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="J33" t="n">
         <v>118.1488788173926</v>
@@ -6783,16 +6783,16 @@
         <v>347.6394313775813</v>
       </c>
       <c r="L33" t="n">
-        <v>713.4612765476969</v>
+        <v>713.461276547697</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.494630057923</v>
+        <v>1198.494630057924</v>
       </c>
       <c r="N33" t="n">
-        <v>1709.760276181045</v>
+        <v>1709.760276181046</v>
       </c>
       <c r="O33" t="n">
-        <v>2101.960226965196</v>
+        <v>2101.960226965197</v>
       </c>
       <c r="P33" t="n">
         <v>2404.056146240894</v>
@@ -6801,28 +6801,28 @@
         <v>2561.827776026488</v>
       </c>
       <c r="R33" t="n">
-        <v>2516.756124581538</v>
+        <v>2502.043507121434</v>
       </c>
       <c r="S33" t="n">
-        <v>2363.956637594279</v>
+        <v>2349.244020134174</v>
       </c>
       <c r="T33" t="n">
-        <v>2175.271533760264</v>
+        <v>2160.55891630016</v>
       </c>
       <c r="U33" t="n">
-        <v>1956.776741358574</v>
+        <v>1942.06412389847</v>
       </c>
       <c r="V33" t="n">
-        <v>1728.381118806908</v>
+        <v>1713.668501346804</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.065250040218</v>
+        <v>1472.352632580114</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.148261918013</v>
+        <v>1274.435644457908</v>
       </c>
       <c r="Y33" t="n">
-        <v>1096.626935567592</v>
+        <v>1081.914318107487</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.6853742905647</v>
+        <v>139.6853742905654</v>
       </c>
       <c r="C34" t="n">
-        <v>115.6826187139215</v>
+        <v>115.6826187139221</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2239395033607</v>
+        <v>108.2239395033612</v>
       </c>
       <c r="E34" t="n">
-        <v>101.828139226356</v>
+        <v>101.8281392263564</v>
       </c>
       <c r="F34" t="n">
-        <v>94.96069821380965</v>
+        <v>94.96069821380991</v>
       </c>
       <c r="G34" t="n">
-        <v>71.65416354333615</v>
+        <v>71.6541635433363</v>
       </c>
       <c r="H34" t="n">
-        <v>57.89473228428648</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="I34" t="n">
-        <v>57.89473228428648</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="J34" t="n">
-        <v>57.89473228428648</v>
+        <v>57.8947322842865</v>
       </c>
       <c r="K34" t="n">
-        <v>91.49892002892989</v>
+        <v>91.49892002892992</v>
       </c>
       <c r="L34" t="n">
-        <v>334.8215104330285</v>
+        <v>192.1059994291894</v>
       </c>
       <c r="M34" t="n">
-        <v>473.9318998562701</v>
+        <v>452.8150165606302</v>
       </c>
       <c r="N34" t="n">
-        <v>735.0697526097096</v>
+        <v>571.2373583102305</v>
       </c>
       <c r="O34" t="n">
-        <v>833.5333991053992</v>
+        <v>669.7010048059202</v>
       </c>
       <c r="P34" t="n">
-        <v>896.501882833537</v>
+        <v>791.5568200832192</v>
       </c>
       <c r="Q34" t="n">
-        <v>896.501882833537</v>
+        <v>896.5018828335388</v>
       </c>
       <c r="R34" t="n">
-        <v>892.5933154095917</v>
+        <v>892.5933154095934</v>
       </c>
       <c r="S34" t="n">
-        <v>824.4967667749557</v>
+        <v>824.4967667749573</v>
       </c>
       <c r="T34" t="n">
-        <v>736.9310275523111</v>
+        <v>736.9310275523126</v>
       </c>
       <c r="U34" t="n">
-        <v>595.3540020030874</v>
+        <v>595.3540020030888</v>
       </c>
       <c r="V34" t="n">
-        <v>480.2319115231866</v>
+        <v>480.2319115231878</v>
       </c>
       <c r="W34" t="n">
-        <v>339.6887240022622</v>
+        <v>339.6887240022633</v>
       </c>
       <c r="X34" t="n">
-        <v>254.0494738593144</v>
+        <v>254.0494738593154</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.627529013268</v>
+        <v>177.6275290132689</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>238.9081644362657</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810484</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556528</v>
+        <v>826.9339095659947</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N35" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.972208997831</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582347</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.5005000384</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7038,7 +7038,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
         <v>2357.162579672078</v>
@@ -7099,10 +7099,10 @@
         <v>84.70486210672917</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
         <v>467.9465500458442</v>
@@ -7172,28 +7172,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>163.2749745479474</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>567.8831210837625</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961697</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.60146441775</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104287</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E39" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
@@ -7287,16 +7287,16 @@
         <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y39" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="40">
@@ -7324,28 +7324,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>59.36731927228439</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>82.50168994950198</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>82.50168994950198</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>116.1058776941454</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>216.7129570944049</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>334.7064632220066</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>453.128804971607</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>551.5924514672967</v>
       </c>
       <c r="P40" t="n">
         <v>629.3786802696717</v>
@@ -7409,19 +7409,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>238.9081644362655</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0485364810482</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>991.4016840570268</v>
+        <v>826.9339095659941</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.640850310115</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N41" t="n">
-        <v>1927.439983488863</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O41" t="n">
         <v>2232.444567961697</v>
@@ -7561,25 +7561,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>92.9715070169278</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>193.5785864171873</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M43" t="n">
-        <v>311.572092544789</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N43" t="n">
-        <v>429.9944342943894</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O43" t="n">
         <v>566.4101965415339</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1361.887812572759</v>
+        <v>1361.887812572758</v>
       </c>
       <c r="C44" t="n">
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478542</v>
+        <v>942.7443621478537</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614933</v>
+        <v>715.7657787614929</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791955</v>
       </c>
       <c r="G44" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409158</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575751</v>
+        <v>56.11073664575743</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208573</v>
@@ -7655,19 +7655,19 @@
         <v>711.1249637646204</v>
       </c>
       <c r="M44" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N44" t="n">
-        <v>1647.163263196456</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O44" t="n">
-        <v>2116.635622160322</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P44" t="n">
-        <v>2344.792518616376</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7688,10 +7688,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="45">
@@ -7749,25 +7749,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
         <v>1089.832877645391</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749101</v>
+        <v>52.90950739287314</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670351</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670351</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670351</v>
+        <v>56.26358779153686</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670351</v>
+        <v>56.26358779153686</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208573</v>
+        <v>55.15097566691916</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208573</v>
+        <v>55.15097566691916</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>78.28534634413678</v>
       </c>
       <c r="J46" t="n">
-        <v>97.31943502373986</v>
+        <v>78.28534634413678</v>
       </c>
       <c r="K46" t="n">
-        <v>130.9236227683833</v>
+        <v>111.8895340887802</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686428</v>
+        <v>212.4966134890397</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962445</v>
+        <v>330.4901196166414</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458449</v>
+        <v>448.9124613662418</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415346</v>
+        <v>547.3761078619315</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696724</v>
+        <v>610.3445915900693</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696724</v>
+        <v>610.3445915900693</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696724</v>
+        <v>628.2660681450537</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808921</v>
+        <v>582.3634420562736</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041031</v>
+        <v>516.9916253794847</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007352</v>
+        <v>397.6085223761169</v>
       </c>
       <c r="V46" t="n">
-        <v>305.79296656669</v>
+        <v>304.6803544420718</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916213</v>
+        <v>186.3310894670032</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945293</v>
+        <v>122.8857618699113</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433861</v>
+        <v>68.65773956972066</v>
       </c>
     </row>
   </sheetData>
@@ -7988,13 +7988,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>568.2500870234447</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.0374059107888</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
         <v>180.6233730229902</v>
@@ -8064,16 +8064,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>380.9326843839834</v>
+        <v>576.9226354892755</v>
       </c>
       <c r="N3" t="n">
-        <v>607.8524853807717</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8222,10 +8222,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
-        <v>584.3675935406823</v>
+        <v>488.6805639936617</v>
       </c>
       <c r="N5" t="n">
-        <v>472.8639721885552</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
         <v>495.0402356415689</v>
@@ -8301,10 +8301,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>527.8219870134729</v>
       </c>
       <c r="N6" t="n">
-        <v>530.2578895192419</v>
+        <v>607.8524853807726</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8538,19 +8538,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3271126651593</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407155</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>510.1797769540909</v>
+        <v>510.1797769540922</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,13 +9015,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>571.0425512299555</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>301.0362895393907</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9240,19 +9240,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>369.1271392019696</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>571.0425512299555</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9480,7 +9480,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>230.8394984238249</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>510.1797769540909</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9726,7 +9726,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>510.1797769540904</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>160.1351643640756</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146303</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>260.1771050138111</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>255.66555961684</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980903</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>193.4995477632532</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5322287359342539</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>205.4089676003692</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.54137377400308</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>70.54137377400748</v>
       </c>
     </row>
     <row r="27">
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>68.6081058765846</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24692,10 +24692,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>151.0579908982718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-3.863219107542627e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>808638.3188878297</v>
+        <v>808638.3188878298</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>808638.3188878297</v>
+        <v>808638.3188878298</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736405.9326351703</v>
+        <v>736405.9326351705</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780220.9987442067</v>
+        <v>780220.9987442062</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780220.9987442065</v>
+        <v>780220.9987442063</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810174.3919185119</v>
+        <v>810174.3919185122</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>556527.4438582816</v>
       </c>
       <c r="C2" t="n">
-        <v>556527.4438582818</v>
+        <v>556527.4438582816</v>
       </c>
       <c r="D2" t="n">
         <v>556527.4438582815</v>
       </c>
       <c r="E2" t="n">
-        <v>504519.1460051839</v>
+        <v>504519.1460051844</v>
       </c>
       <c r="F2" t="n">
         <v>504519.1460051844</v>
@@ -26329,16 +26329,16 @@
         <v>556527.4438582817</v>
       </c>
       <c r="H2" t="n">
-        <v>556527.4438582816</v>
+        <v>556527.4438582817</v>
       </c>
       <c r="I2" t="n">
         <v>556527.4438582816</v>
       </c>
       <c r="J2" t="n">
-        <v>535340.8974667001</v>
+        <v>535340.8974666998</v>
       </c>
       <c r="K2" t="n">
-        <v>535340.8974667001</v>
+        <v>535340.8974666998</v>
       </c>
       <c r="L2" t="n">
         <v>556527.4438582812</v>
@@ -26350,7 +26350,7 @@
         <v>556527.4438582814</v>
       </c>
       <c r="O2" t="n">
-        <v>556527.4438582812</v>
+        <v>556527.4438582814</v>
       </c>
       <c r="P2" t="n">
         <v>556527.4438582812</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167942.6502382267</v>
+        <v>167942.650238227</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7506.640144977075</v>
+        <v>7506.640144976775</v>
       </c>
       <c r="E3" t="n">
-        <v>116101.0852352525</v>
+        <v>116101.0852352527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48202.39618561642</v>
+        <v>48202.39618561635</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72783.92923669721</v>
+        <v>72783.92923669708</v>
       </c>
       <c r="M3" t="n">
-        <v>17577.58665631777</v>
+        <v>17577.58665631786</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42541.73622095052</v>
+        <v>42541.73622095063</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211465.2107705818</v>
+        <v>211465.2107705816</v>
       </c>
       <c r="C4" t="n">
-        <v>211465.2107705818</v>
+        <v>211465.2107705816</v>
       </c>
       <c r="D4" t="n">
         <v>205465.1763480132</v>
       </c>
       <c r="E4" t="n">
-        <v>157786.7685010163</v>
+        <v>157786.7685010164</v>
       </c>
       <c r="F4" t="n">
-        <v>157786.7685010163</v>
+        <v>157786.7685010164</v>
       </c>
       <c r="G4" t="n">
         <v>198481.1645281407</v>
@@ -26439,10 +26439,10 @@
         <v>198481.1645281407</v>
       </c>
       <c r="J4" t="n">
-        <v>180147.5974374848</v>
+        <v>180147.5974374847</v>
       </c>
       <c r="K4" t="n">
-        <v>180147.5974374848</v>
+        <v>180147.5974374847</v>
       </c>
       <c r="L4" t="n">
         <v>196574.7277530333</v>
@@ -26457,7 +26457,7 @@
         <v>196149.3991736114</v>
       </c>
       <c r="P4" t="n">
-        <v>196149.3991736113</v>
+        <v>196149.3991736114</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64096.75053423425</v>
+        <v>64096.75053423431</v>
       </c>
       <c r="C5" t="n">
-        <v>64096.75053423425</v>
+        <v>64096.75053423431</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46637.87924189356</v>
+        <v>46637.87924189358</v>
       </c>
       <c r="F5" t="n">
-        <v>46637.87924189356</v>
+        <v>46637.87924189358</v>
       </c>
       <c r="G5" t="n">
-        <v>51703.2882980543</v>
+        <v>51703.28829805431</v>
       </c>
       <c r="H5" t="n">
-        <v>51703.2882980543</v>
+        <v>51703.28829805431</v>
       </c>
       <c r="I5" t="n">
-        <v>51703.28829805429</v>
+        <v>51703.28829805431</v>
       </c>
       <c r="J5" t="n">
-        <v>55005.24122284449</v>
+        <v>55005.24122284444</v>
       </c>
       <c r="K5" t="n">
-        <v>55005.24122284449</v>
+        <v>55005.24122284444</v>
       </c>
       <c r="L5" t="n">
-        <v>56119.13824775646</v>
+        <v>56119.13824775647</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264638</v>
@@ -26509,7 +26509,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="P5" t="n">
-        <v>52802.81689264636</v>
+        <v>52802.81689264637</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113022.8323152389</v>
+        <v>113022.8323152387</v>
       </c>
       <c r="C6" t="n">
         <v>280965.4825534658</v>
       </c>
       <c r="D6" t="n">
-        <v>277989.5927283798</v>
+        <v>277989.5927283801</v>
       </c>
       <c r="E6" t="n">
-        <v>183993.4130270215</v>
+        <v>183814.0740689076</v>
       </c>
       <c r="F6" t="n">
-        <v>300094.4982622745</v>
+        <v>299915.1593041603</v>
       </c>
       <c r="G6" t="n">
         <v>258140.5948464703</v>
       </c>
       <c r="H6" t="n">
-        <v>306342.9910320865</v>
+        <v>306342.9910320867</v>
       </c>
       <c r="I6" t="n">
         <v>306342.9910320866</v>
       </c>
       <c r="J6" t="n">
-        <v>90519.01205050063</v>
+        <v>90445.95499397792</v>
       </c>
       <c r="K6" t="n">
-        <v>300188.0588063707</v>
+        <v>300115.001749848</v>
       </c>
       <c r="L6" t="n">
-        <v>231049.6486207942</v>
+        <v>231049.6486207944</v>
       </c>
       <c r="M6" t="n">
-        <v>289997.6411357059</v>
+        <v>289997.6411357058</v>
       </c>
       <c r="N6" t="n">
         <v>307575.2277920236</v>
@@ -26561,7 +26561,7 @@
         <v>265033.491571073</v>
       </c>
       <c r="P6" t="n">
-        <v>307575.2277920236</v>
+        <v>307575.2277920234</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="H2" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="I2" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26725,7 +26725,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="P2" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130634</v>
+        <v>501.1373443130643</v>
       </c>
       <c r="C4" t="n">
-        <v>501.1373443130634</v>
+        <v>501.1373443130643</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2289252924994</v>
+        <v>610.2289252924998</v>
       </c>
       <c r="F4" t="n">
-        <v>610.2289252924994</v>
+        <v>610.2289252924998</v>
       </c>
       <c r="G4" t="n">
-        <v>610.2289252924994</v>
+        <v>610.2289252924998</v>
       </c>
       <c r="H4" t="n">
-        <v>610.2289252924994</v>
+        <v>610.2289252924998</v>
       </c>
       <c r="I4" t="n">
-        <v>610.2289252924993</v>
+        <v>610.2289252924996</v>
       </c>
       <c r="J4" t="n">
-        <v>747.8500105055081</v>
+        <v>747.8500105055074</v>
       </c>
       <c r="K4" t="n">
-        <v>747.8500105055081</v>
+        <v>747.8500105055074</v>
       </c>
       <c r="L4" t="n">
-        <v>723.6841535535809</v>
+        <v>723.6841535535813</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260718</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60.25299523202052</v>
+        <v>60.25299523202044</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>53.17717027618815</v>
+        <v>53.17717027618829</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.97991154587152</v>
+        <v>90.97991154587135</v>
       </c>
       <c r="M2" t="n">
-        <v>21.97198332039721</v>
+        <v>21.97198332039733</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618815</v>
+        <v>53.17717027618829</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501.1373443130634</v>
+        <v>501.1373443130643</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>24.16585695192697</v>
+        <v>24.165856951926</v>
       </c>
       <c r="E4" t="n">
-        <v>84.92572402750909</v>
+        <v>84.92572402750943</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260721</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.25299523202052</v>
+        <v>60.25299523202044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.17717027618815</v>
+        <v>53.17717027618829</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>501.1373443130634</v>
+        <v>501.1373443130643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>24.16585695192697</v>
+        <v>24.165856951926</v>
       </c>
       <c r="M4" t="n">
-        <v>84.92572402750909</v>
+        <v>84.92572402750943</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>158.0561059359502</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -27430,19 +27430,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5066268044838</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>43.93526159956553</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>131.7950355164747</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.4364776329765</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27594,7 +27594,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>119.7855102616193</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>373.1066129147261</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>19.5392668808789</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>78.03752373152751</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>90.24839350560384</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27780,16 +27780,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>130.4795562147046</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>82.91172697518263</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27822,10 +27822,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27853,16 +27853,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>361.1396479372752</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,16 +27910,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>229.7555409888362</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>9.509441759257456</v>
+        <v>87.28120452604855</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>128.464974121134</v>
+        <v>93.47784511364529</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28087,49 +28087,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>113.4301655082086</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>109.4112227086689</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>113.4301655082086</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>109.4112227086699</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>113.4301655082086</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>11.85262580694105</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>11.85262580694268</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.4301655082086</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="14">
@@ -28348,22 +28348,22 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>109.4112227086686</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>109.4112227086696</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28412,13 +28412,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>11.85262580694132</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>11.85262580694236</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28469,7 +28469,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28561,37 +28561,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="D17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="E17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="F17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="G17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="H17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="I17" t="n">
-        <v>173.6831607402293</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>162.5883929848583</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,37 +28600,37 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>173.6831607402293</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>76.04300194679533</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.6831607402293</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>125.2827913151514</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>57.58432885831061</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2305511458285</v>
+        <v>149.6621287148365</v>
       </c>
       <c r="H19" t="n">
         <v>157.7789187685189</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T19" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U19" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V19" t="n">
-        <v>156.1147383092367</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W19" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X19" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="D20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="E20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="F20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="G20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="H20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="I20" t="n">
         <v>171.0890268032919</v>
@@ -28828,10 +28828,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>173.6831607402293</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>162.5883929848586</v>
       </c>
       <c r="Q20" t="n">
-        <v>162.5883929848566</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28943,10 +28943,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>125.2827913151513</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>57.58432885831053</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.58354550185524</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T22" t="n">
-        <v>173.6831607402293</v>
+        <v>156.1147383092371</v>
       </c>
       <c r="U22" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V22" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W22" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X22" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="D23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="E23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="F23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="G23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="H23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="I23" t="n">
-        <v>173.6831607402293</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29065,19 +29065,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>159.9942590479191</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>173.6831607402293</v>
+        <v>162.5883929848576</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,13 +29165,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>125.2827913151516</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>57.58432885831107</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29202,7 +29202,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>132.9205016653009</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>20.58354550185581</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="T25" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="U25" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="V25" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="W25" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="X25" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.6831607402293</v>
+        <v>173.6831607402292</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N26" t="n">
-        <v>113.4301655082088</v>
+        <v>63.48602626315829</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>63.48602626316142</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>113.4301655082087</v>
+        <v>63.48602626315849</v>
       </c>
       <c r="L29" t="n">
         <v>113.4301655082087</v>
@@ -29548,7 +29548,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O29" t="n">
-        <v>87.18428813226529</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
         <v>113.4301655082087</v>
@@ -29557,7 +29557,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S29" t="n">
         <v>113.4301655082087</v>
@@ -29597,7 +29597,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550334</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="D32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="E32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="F32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="G32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="H32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="I32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="K32" t="n">
-        <v>10.29782984944814</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="M32" t="n">
-        <v>144.1570818220597</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>144.1570818220597</v>
+        <v>10.29782984945086</v>
       </c>
       <c r="O32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="P32" t="n">
-        <v>144.1570818220597</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="R32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="S32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="T32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="U32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="V32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="W32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="X32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="C34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="D34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="E34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="F34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="G34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="H34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="I34" t="n">
         <v>142.7610139533483</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>144.1570818220597</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>21.330185147111</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="N34" t="n">
-        <v>144.1570818220597</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>59.48215307996085</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="R34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="S34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="T34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="U34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="V34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="W34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="X34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.1570818220597</v>
+        <v>144.1570818220596</v>
       </c>
     </row>
     <row r="35">
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>116.9787331327013</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>40.58157162934987</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>14.56549128550353</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30171,13 +30171,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>40.58157162934945</v>
+      </c>
+      <c r="K38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>116.9787331327008</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>14.56549128550378</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30396,13 +30396,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>14.9674192669063</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30481,13 +30481,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9787331327011</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327007</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30496,7 +30496,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>38.33547045601495</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="C44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="D44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="E44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="F44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="G44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="H44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="I44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,43 +30727,43 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>40.58157162934955</v>
+        <v>166.129065142457</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="T44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="U44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="V44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="W44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="X44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
     </row>
     <row r="45">
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
     </row>
     <row r="46">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="C46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>155.703988166447</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>166.129065142457</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1422830299227</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>166.129065142457</v>
       </c>
       <c r="S46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="T46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="U46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="V46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="W46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="X46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.1290651424569</v>
+        <v>166.129065142457</v>
       </c>
     </row>
   </sheetData>
@@ -34708,13 +34708,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>381.8519728512146</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.1605968596323</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>265.4487818223435</v>
+        <v>461.4387329276357</v>
       </c>
       <c r="N3" t="n">
-        <v>501.1373443130634</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34942,10 +34942,10 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
-        <v>397.2112790435232</v>
+        <v>301.5242494965026</v>
       </c>
       <c r="N5" t="n">
-        <v>286.4658580163251</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
         <v>308.0854388614484</v>
@@ -35021,10 +35021,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>412.3380844518331</v>
       </c>
       <c r="N6" t="n">
-        <v>423.5427484515336</v>
+        <v>501.1373443130643</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35258,19 +35258,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>345.8432101035195</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730072</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.1559678039719</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>351.9772550771364</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>495.5830530715579</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>339.8727342804409</v>
       </c>
       <c r="Q11" t="n">
         <v>95.38611483488586</v>
@@ -35498,7 +35498,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>403.4646358863826</v>
+        <v>403.4646358863839</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823965</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K13" t="n">
-        <v>147.3737894926969</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L13" t="n">
-        <v>215.0534780337233</v>
+        <v>215.0534780337234</v>
       </c>
       <c r="M13" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N13" t="n">
-        <v>233.048692528007</v>
+        <v>233.0486925280071</v>
       </c>
       <c r="O13" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P13" t="n">
-        <v>177.0346945265296</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536079</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
-        <v>491.5641102720178</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>417.4966615701181</v>
       </c>
       <c r="P14" t="n">
         <v>230.4615115717709</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
@@ -35735,13 +35735,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>464.3274101622472</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>192.1820835152474</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35878,16 +35878,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.594133936937311</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>235.3141952806216</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>525.0825274927001</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
@@ -35896,16 +35896,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>481.7685996016777</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>171.4291167816812</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>83.95125710112407</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233491</v>
+        <v>256.5517056308219</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>464.3274101622472</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36124,10 +36124,10 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>525.0825274927001</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>570.8944397837523</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36136,10 +36136,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>393.0499045566295</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.9745078197425</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>118.8433292571582</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>403.4646358863826</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.594133936937311</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>72.72580229576329</v>
@@ -36361,19 +36361,19 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>511.39362580039</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>555.8360483035785</v>
+        <v>544.7412805482069</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>404.1446723120001</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
@@ -36446,7 +36446,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>403.4646358863821</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>46.39997291918311</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36604,19 +36604,19 @@
         <v>510.6414445517319</v>
       </c>
       <c r="N26" t="n">
-        <v>495.583053071558</v>
+        <v>445.6389138265075</v>
       </c>
       <c r="O26" t="n">
         <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
-        <v>293.9475378349323</v>
+        <v>343.8916770799797</v>
       </c>
       <c r="Q26" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910358</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823976</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L28" t="n">
         <v>215.0534780337234</v>
@@ -36768,10 +36768,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P28" t="n">
-        <v>177.0346945265298</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536091</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766761</v>
+        <v>306.0520586316259</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>395.2697269937137</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>216.8828841178229</v>
       </c>
       <c r="K32" t="n">
-        <v>252.8638622179156</v>
+        <v>386.723114190527</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>495.5564485745306</v>
       </c>
       <c r="M32" t="n">
-        <v>541.3683608655829</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>526.309969385409</v>
+        <v>392.4507174128001</v>
       </c>
       <c r="O32" t="n">
-        <v>452.2425206835081</v>
+        <v>452.242520683508</v>
       </c>
       <c r="P32" t="n">
-        <v>374.6185933938307</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>239.5431966569456</v>
+        <v>239.5431966569455</v>
       </c>
       <c r="R32" t="n">
-        <v>54.42517818295454</v>
+        <v>54.42517818295443</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>245.7803943475744</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>140.5155448719612</v>
+        <v>263.3424415469099</v>
       </c>
       <c r="N34" t="n">
-        <v>263.7756088418581</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>63.604529018321</v>
+        <v>123.0866820982819</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>106.0051138892118</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>189.7045354284645</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>348.6670104907983</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,13 +37467,13 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554676</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
         <v>99.45822878352493</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>113.3073739251127</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
@@ -37555,16 +37555,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>425.0641719941493</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37640,7 +37640,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37692,13 +37692,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>78.57194828522731</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>189.7045354284644</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>468.3780998851717</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37792,7 +37792,7 @@
         <v>548.2819527058061</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
@@ -37868,7 +37868,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
         <v>396.1615664486372</v>
@@ -37877,7 +37877,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M43" t="n">
         <v>119.1853597248502</v>
@@ -37950,7 +37950,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>137.7936992395399</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -38023,22 +38023,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>563.34034418598</v>
+        <v>514.1900121762241</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039053</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.9676864642354</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>76.3971615033517</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>5.215064070152657</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38169,10 +38169,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.36805118910871</v>
       </c>
       <c r="J46" t="n">
-        <v>46.68561682995367</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>33.9436239844883</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.1025015706914</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
